--- a/Data_processed/PL_SU17.xlsx
+++ b/Data_processed/PL_SU17.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/Desktop/Tris_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/github/McHugh-et-al/Data_processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F398CE2B-A128-0448-9BBE-F58B764157EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD85A2-BE9E-5D47-A90E-D4751EA02A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="1020" windowWidth="14260" windowHeight="14000" activeTab="4" xr2:uid="{E0ECCE27-EB01-C347-BD5B-90953394F6C0}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="11">
   <si>
     <t>PAR</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Crypto</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>pmax</t>
   </si>
 </sst>
 </file>
@@ -91,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F6493F-CDBD-434A-92C0-19AB794E929C}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="A1:XFD1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +435,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -442,8 +455,14 @@
       <c r="D2">
         <v>6.1072664359861586E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -456,8 +475,14 @@
       <c r="D3">
         <v>7.4394463667820072E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -470,8 +495,14 @@
       <c r="D4">
         <v>2.7508650519031137E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -484,8 +515,14 @@
       <c r="D5">
         <v>5.8823529411764701E-6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -498,8 +535,14 @@
       <c r="D6">
         <v>7.8546712802768153E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -512,8 +555,14 @@
       <c r="D7">
         <v>1.2508650519031141E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -526,8 +575,14 @@
       <c r="D8">
         <v>1.4498269896193771E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -540,8 +595,14 @@
       <c r="D9">
         <v>1.1955017301038062E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -554,8 +615,14 @@
       <c r="D10">
         <v>4.0292553191489361E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -568,8 +635,14 @@
       <c r="D11">
         <v>5.1861702127659579E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -582,8 +655,14 @@
       <c r="D12">
         <v>1.223404255319149E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -596,8 +675,14 @@
       <c r="D13">
         <v>2.9654255319148938E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -610,8 +695,14 @@
       <c r="D14">
         <v>7.9122340425531927E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -624,8 +715,14 @@
       <c r="D15">
         <v>8.2047872340425544E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -638,8 +735,14 @@
       <c r="D16">
         <v>1.0172872340425532E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -652,8 +755,14 @@
       <c r="D17">
         <v>1.199468085106383E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -666,8 +775,14 @@
       <c r="D18">
         <v>2.0192307692307691E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -680,8 +795,14 @@
       <c r="D19">
         <v>6.8910256410256413E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -694,8 +815,14 @@
       <c r="D20">
         <v>2.9166666666666666E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -708,8 +835,14 @@
       <c r="D21">
         <v>5.0641025641025637E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -722,8 +855,14 @@
       <c r="D22">
         <v>9.4070512820512806E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -736,8 +875,14 @@
       <c r="D23">
         <v>9.7596153846153839E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -750,8 +895,14 @@
       <c r="D24">
         <v>1.2419871794871795E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.12163889999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -763,6 +914,12 @@
       </c>
       <c r="D25">
         <v>1.4166666666666668E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.8758940000000001E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.12163889999999999</v>
       </c>
     </row>
   </sheetData>
@@ -772,15 +929,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB16D449-7CC9-F440-B08C-8063C99B2536}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="A1:XFD1048576"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -793,8 +950,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -807,8 +970,14 @@
       <c r="D2">
         <v>-3.1308411214953269E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -821,8 +990,14 @@
       <c r="D3">
         <v>5.14018691588785E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -835,8 +1010,14 @@
       <c r="D4">
         <v>5.4672897196261676E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -849,8 +1030,14 @@
       <c r="D5">
         <v>9.0186915887850459E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -863,8 +1050,14 @@
       <c r="D6">
         <v>1.289719626168224E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -877,8 +1070,14 @@
       <c r="D7">
         <v>144.85981308411215</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -891,8 +1090,14 @@
       <c r="D8">
         <v>1.570093457943925E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -905,8 +1110,14 @@
       <c r="D9">
         <v>1.6635514018691587E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -919,8 +1130,14 @@
       <c r="D10">
         <v>1.7872340425531915E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -933,8 +1150,14 @@
       <c r="D11">
         <v>1.4382978723404254E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -947,8 +1170,14 @@
       <c r="D12">
         <v>9.6595744680851061E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -961,8 +1190,14 @@
       <c r="D13">
         <v>1.025531914893617E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -975,8 +1210,14 @@
       <c r="D14">
         <v>1.1191489361702127E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -989,8 +1230,14 @@
       <c r="D15">
         <v>1.0765957446808512E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1003,8 +1250,14 @@
       <c r="D16">
         <v>1.0212765957446809E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1017,8 +1270,14 @@
       <c r="D17">
         <v>8.6382978723404256E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1031,8 +1290,14 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1045,8 +1310,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1059,8 +1330,14 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1073,8 +1350,14 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1087,8 +1370,14 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1101,8 +1390,14 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1115,8 +1410,14 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.23675599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1128,6 +1429,12 @@
       </c>
       <c r="D25">
         <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8.4925829999999995E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.23675599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1137,15 +1444,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEB9371-D101-7349-84E1-A8CD855C758F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="A1:XFD1048576"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1158,8 +1465,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1172,8 +1485,14 @@
       <c r="D2">
         <v>4.2510121457489876E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F2">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1186,8 +1505,14 @@
       <c r="D3">
         <v>6.1133603238866397E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F3">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1200,8 +1525,14 @@
       <c r="D4">
         <v>7.8137651821862342E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F4">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1214,8 +1545,14 @@
       <c r="D5">
         <v>1.0647773279352226E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F5">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1228,8 +1565,14 @@
       <c r="D6">
         <v>1.4372469635627529E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F6">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1242,8 +1585,14 @@
       <c r="D7">
         <v>1.6153846153846153E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1256,8 +1605,14 @@
       <c r="D8">
         <v>1.7287449392712549E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F8">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -1270,8 +1625,14 @@
       <c r="D9">
         <v>1.8461538461538461E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F9">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1284,8 +1645,14 @@
       <c r="D10">
         <v>1.0382513661202186E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F10">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1298,8 +1665,14 @@
       <c r="D11">
         <v>7.7049180327868862E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F11">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1312,8 +1685,14 @@
       <c r="D12">
         <v>1.2076502732240438E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F12">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1326,8 +1705,14 @@
       <c r="D13">
         <v>1.1530054644808743E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1340,8 +1725,14 @@
       <c r="D14">
         <v>1.2896174863387977E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1354,8 +1745,14 @@
       <c r="D15">
         <v>1.3442622950819673E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1368,8 +1765,14 @@
       <c r="D16">
         <v>1.3825136612021858E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1382,8 +1785,14 @@
       <c r="D17">
         <v>1.4262295081967212E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1396,8 +1805,14 @@
       <c r="D18">
         <v>1.6904761904761906E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F18">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1410,8 +1825,14 @@
       <c r="D19">
         <v>4.5238095238095238E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F19">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1424,8 +1845,14 @@
       <c r="D20">
         <v>4.761904761904762E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F20">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1438,8 +1865,14 @@
       <c r="D21">
         <v>7.642857142857142E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F21">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1452,8 +1885,14 @@
       <c r="D22">
         <v>9.476190476190477E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F22">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1466,8 +1905,14 @@
       <c r="D23">
         <v>9.6666666666666667E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F23">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1480,8 +1925,14 @@
       <c r="D24">
         <v>1.0928571428571428E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F24">
+        <v>8.4163109999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1493,6 +1944,12 @@
       </c>
       <c r="D25">
         <v>1.1547619047619047E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.9416240000000001E-5</v>
+      </c>
+      <c r="F25">
+        <v>8.4163109999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1502,15 +1959,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68672A54-0A97-0B4B-A731-D7D97FA80A4F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1523,8 +1980,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1537,8 +2000,14 @@
       <c r="D2">
         <v>1.3176470588235293E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1551,8 +2020,14 @@
       <c r="D3">
         <v>9.11764705882353E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1565,8 +2040,14 @@
       <c r="D4">
         <v>9.0588235294117653E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1579,8 +2060,14 @@
       <c r="D5">
         <v>7.941176470588236E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1593,8 +2080,14 @@
       <c r="D6">
         <v>6.1176470588235289E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1607,8 +2100,14 @@
       <c r="D7">
         <v>3.970588235294118E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1621,8 +2120,14 @@
       <c r="D8">
         <v>3.2941176470588232E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -1635,8 +2140,14 @@
       <c r="D9">
         <v>3.0294117647058824E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1649,8 +2160,14 @@
       <c r="D10">
         <v>-2.1724137931034484E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1663,8 +2180,14 @@
       <c r="D11">
         <v>2.7096774193548384E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1677,8 +2200,14 @@
       <c r="D12">
         <v>5.6129032258064517E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1691,8 +2220,14 @@
       <c r="D13">
         <v>6.161290322580645E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1705,8 +2240,14 @@
       <c r="D14">
         <v>9.1290322580645154E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1719,8 +2260,14 @@
       <c r="D15">
         <v>1.2129032258064515E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1733,8 +2280,14 @@
       <c r="D16">
         <v>1.2193548387096775E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1747,8 +2300,14 @@
       <c r="D17">
         <v>1.2645161290322581E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1761,8 +2320,14 @@
       <c r="D18">
         <v>-2.4866310160427807E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1775,8 +2340,14 @@
       <c r="D19">
         <v>2.1657754010695186E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1789,8 +2360,14 @@
       <c r="D20">
         <v>3.6631016042780747E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1803,8 +2380,14 @@
       <c r="D21">
         <v>6.4438502673796788E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1817,8 +2400,14 @@
       <c r="D22">
         <v>9.8395721925133682E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1831,8 +2420,14 @@
       <c r="D23">
         <v>1.1096256684491978E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1845,8 +2440,14 @@
       <c r="D24">
         <v>1.4010695187165775E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.2296909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1858,6 +2459,12 @@
       </c>
       <c r="D25">
         <v>1.6390374331550801E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.964931E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.2296909</v>
       </c>
     </row>
   </sheetData>
@@ -1867,15 +2474,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55D3A7-D1E8-394A-90AF-6A282971B42F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1888,8 +2495,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1902,8 +2515,14 @@
       <c r="D2">
         <v>1.2881355932203389E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1916,8 +2535,14 @@
       <c r="D3">
         <v>5.0508474576271183E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1930,8 +2555,14 @@
       <c r="D4">
         <v>5.9661016949152534E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1944,8 +2575,14 @@
       <c r="D5">
         <v>5.9322033898305081E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F5">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1958,8 +2595,14 @@
       <c r="D6">
         <v>1.3016949152542374E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1972,8 +2615,14 @@
       <c r="D7">
         <v>1.5593220338983051E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1986,8 +2635,14 @@
       <c r="D8">
         <v>1.6508474576271186E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F8">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -2000,8 +2655,14 @@
       <c r="D9">
         <v>1.854237288135593E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F9">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2014,8 +2675,14 @@
       <c r="D10">
         <v>1.4353448275862072E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F10">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2028,8 +2695,14 @@
       <c r="D11">
         <v>7.1982758620689653E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F11">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2042,8 +2715,14 @@
       <c r="D12">
         <v>9.4396551724137943E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F12">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2056,8 +2735,14 @@
       <c r="D13">
         <v>1.3620689655172413E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F13">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -2070,8 +2755,14 @@
       <c r="D14">
         <v>2.0775862068965519E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F14">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -2084,8 +2775,14 @@
       <c r="D15">
         <v>2.5560344827586209E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F15">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -2098,8 +2795,14 @@
       <c r="D16">
         <v>2.1939655172413796E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -2112,8 +2815,14 @@
       <c r="D17">
         <v>2.5043103448275862E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2126,8 +2835,14 @@
       <c r="D18">
         <v>2.3741007194244609E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2140,8 +2855,14 @@
       <c r="D19">
         <v>7.2302158273381299E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2154,8 +2875,14 @@
       <c r="D20">
         <v>1.0935251798561152E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2168,8 +2895,14 @@
       <c r="D21">
         <v>1.2517985611510793E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F21">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2182,8 +2915,14 @@
       <c r="D22">
         <v>1.719424460431655E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -2196,8 +2935,14 @@
       <c r="D23">
         <v>1.683453237410072E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F23">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -2210,8 +2955,14 @@
       <c r="D24">
         <v>1.8057553956834531E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F24">
+        <v>0.1250165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -2223,6 +2974,12 @@
       </c>
       <c r="D25">
         <v>1.7410071942446044E-4</v>
+      </c>
+      <c r="E25">
+        <v>1.0538459999999999E-4</v>
+      </c>
+      <c r="F25">
+        <v>0.1250165</v>
       </c>
     </row>
   </sheetData>
